--- a/protocol/ERP 시스템 표준 통신 프로토콜 정의_2021_10_28.xlsx
+++ b/protocol/ERP 시스템 표준 통신 프로토콜 정의_2021_10_28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoikazto/Desktop/git/asw-Document/protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoikazto/Desktop/git/Erp-Document/protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0D24C0-B2C4-7E4B-9FCA-506922E51230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326569CD-BD15-CB4E-8E71-315249FC05DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="46440" windowHeight="31540" activeTab="2" xr2:uid="{48572F7A-0ACE-C246-B590-9F1E9A03BAAB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{48572F7A-0ACE-C246-B590-9F1E9A03BAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="223">
   <si>
     <t>Sender</t>
   </si>
@@ -906,6 +906,14 @@
   </si>
   <si>
     <t>토큰 만료일 (재로그인)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토콜 번호(0x43)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,.,.kl;oppl;.//;/;;/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1242,16 +1250,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1907,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BFF69C-9C3A-B345-A9B8-38043CBDF4E2}">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A8" zoomScale="131" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1918,20 +1926,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="19" thickBot="1">
       <c r="A4" s="26" t="s">
@@ -2005,7 +2013,7 @@
       <c r="A8" s="25">
         <v>0.6</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>44498</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2157,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3088A680-D3EE-E74F-A31D-C834569A6AFF}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2343,7 +2351,7 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -2366,7 +2374,7 @@
       <c r="N7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="P7" s="10" t="s">
@@ -2389,12 +2397,10 @@
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="J8" s="7">
         <v>3</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>13</v>
@@ -2434,10 +2440,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J9" s="7">
         <v>4</v>
@@ -2455,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2478,10 +2484,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J10" s="7">
         <v>5</v>
@@ -2499,10 +2505,10 @@
         <v>10</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2522,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>13</v>
@@ -2543,139 +2549,139 @@
         <v>10</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="J14" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="J15" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>9</v>
@@ -2689,14 +2695,14 @@
       <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>17</v>
+      <c r="F17" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>12</v>
@@ -2710,8 +2716,8 @@
       <c r="N17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="12" t="s">
-        <v>17</v>
+      <c r="O17" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>13</v>
@@ -2719,7 +2725,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>9</v>
@@ -2733,14 +2739,14 @@
       <c r="E18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>33</v>
+      <c r="F18" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>12</v>
@@ -2754,16 +2760,16 @@
       <c r="N18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>33</v>
+      <c r="O18" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="7">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>9</v>
@@ -2778,13 +2784,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J19" s="7">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>12</v>
@@ -2799,15 +2805,15 @@
         <v>10</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>9</v>
@@ -2822,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J20" s="7">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>12</v>
@@ -2843,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P20" s="11" t="s">
         <v>8</v>
@@ -2851,7 +2857,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>9</v>
@@ -2872,7 +2878,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>12</v>
@@ -2884,10 +2890,10 @@
         <v>9</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>8</v>
@@ -2895,7 +2901,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>9</v>
@@ -2916,7 +2922,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>12</v>
@@ -2931,7 +2937,7 @@
         <v>10</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>8</v>
@@ -2939,7 +2945,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>9</v>
@@ -2960,7 +2966,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>12</v>
@@ -2983,7 +2989,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>9</v>
@@ -3004,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>12</v>
@@ -3027,7 +3033,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="7">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>9</v>
@@ -3048,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="J25" s="7">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>12</v>
@@ -3071,7 +3077,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>9</v>
@@ -3092,7 +3098,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>12</v>
@@ -3115,7 +3121,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="7">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>9</v>
@@ -3130,13 +3136,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="J27" s="7">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>12</v>
@@ -3151,15 +3157,15 @@
         <v>10</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>9</v>
@@ -3174,7 +3180,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>13</v>
@@ -3195,132 +3201,132 @@
         <v>10</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>36</v>
+    <row r="29" spans="1:16">
+      <c r="A29" s="7">
+        <v>6</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="7">
+        <v>6</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="J32" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="J33" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="L33" s="2"/>
+      <c r="M33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" s="5" t="s">
+      <c r="J34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="7">
-        <v>1</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="7">
-        <v>1</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>9</v>
@@ -3334,14 +3340,14 @@
       <c r="E35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>17</v>
+      <c r="F35" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>12</v>
@@ -3355,8 +3361,8 @@
       <c r="N35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="12" t="s">
-        <v>17</v>
+      <c r="O35" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>13</v>
@@ -3364,7 +3370,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>9</v>
@@ -3378,14 +3384,14 @@
       <c r="E36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>34</v>
+      <c r="F36" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>12</v>
@@ -3399,8 +3405,8 @@
       <c r="N36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O36" s="10" t="s">
-        <v>34</v>
+      <c r="O36" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>13</v>
@@ -3408,7 +3414,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="7">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>9</v>
@@ -3423,13 +3429,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>8</v>
+        <v>221</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J37" s="7">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>12</v>
@@ -3444,7 +3450,7 @@
         <v>10</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>13</v>
@@ -3452,7 +3458,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="7">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>9</v>
@@ -3467,13 +3473,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="7">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>12</v>
@@ -3488,15 +3494,15 @@
         <v>10</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>9</v>
@@ -3517,7 +3523,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>12</v>
@@ -3532,15 +3538,15 @@
         <v>10</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>9</v>
@@ -3560,10 +3566,31 @@
       <c r="G40" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="J40" s="7">
+        <v>6</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>9</v>
@@ -3586,7 +3613,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>9</v>
@@ -3609,7 +3636,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="7">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>9</v>
@@ -3632,7 +3659,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>9</v>
@@ -3655,7 +3682,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="7">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>9</v>
@@ -3670,15 +3697,15 @@
         <v>10</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>9</v>
@@ -3693,15 +3720,39 @@
         <v>10</v>
       </c>
       <c r="F46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="7">
+        <v>6</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G47" s="10" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3710,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8262301-E68F-1C43-B727-9D392BE05D7B}">
   <dimension ref="A1:AI126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q64" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y95" sqref="Y95"/>
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3843,48 +3894,48 @@
       </c>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>56</v>
       </c>
       <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
       <c r="N20" t="s">
         <v>56</v>
       </c>
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="32" t="s">
+      <c r="S20" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
       <c r="W20" t="s">
         <v>56</v>
       </c>
       <c r="X20" t="s">
         <v>58</v>
       </c>
-      <c r="AB20" s="32" t="s">
+      <c r="AB20" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
       <c r="AF20" t="s">
         <v>56</v>
       </c>
@@ -4900,24 +4951,24 @@
       <c r="Q34" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="S34" s="32" t="s">
+      <c r="S34" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
       <c r="W34" t="s">
         <v>56</v>
       </c>
       <c r="X34" t="s">
         <v>58</v>
       </c>
-      <c r="AB34" s="32" t="s">
+      <c r="AB34" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
       <c r="AF34" t="s">
         <v>56</v>
       </c>
@@ -5037,12 +5088,12 @@
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
       <c r="E37" t="s">
         <v>56</v>
       </c>
@@ -5315,12 +5366,12 @@
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="14"/>
-      <c r="J41" s="32" t="s">
+      <c r="J41" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
       <c r="N41" t="s">
         <v>56</v>
       </c>
@@ -5847,12 +5898,12 @@
       <c r="Q48" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S48" s="32" t="s">
+      <c r="S48" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
       <c r="W48" t="s">
         <v>56</v>
       </c>
@@ -6133,12 +6184,12 @@
         <v>1</v>
       </c>
       <c r="W52" s="7"/>
-      <c r="AB52" s="32" t="s">
+      <c r="AB52" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
       <c r="AF52" t="s">
         <v>56</v>
       </c>
@@ -6632,12 +6683,12 @@
       </c>
     </row>
     <row r="62" spans="1:35">
-      <c r="S62" s="32" t="s">
+      <c r="S62" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="T62" s="32"/>
-      <c r="U62" s="32"/>
-      <c r="V62" s="32"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
       <c r="W62" t="s">
         <v>56</v>
       </c>
@@ -6808,25 +6859,25 @@
       </c>
     </row>
     <row r="69" spans="1:34">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
       <c r="S69" s="7">
         <v>1</v>
       </c>
@@ -6954,11 +7005,11 @@
       <c r="Z73" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AD73" s="31" t="s">
+      <c r="AD73" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="AE73" s="31"/>
-      <c r="AF73" s="31"/>
+      <c r="AE73" s="33"/>
+      <c r="AF73" s="33"/>
     </row>
     <row r="74" spans="1:34">
       <c r="A74" t="s">
@@ -6981,36 +7032,36 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="19">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
       <c r="E82" t="s">
         <v>56</v>
       </c>
       <c r="F82" t="s">
         <v>57</v>
       </c>
-      <c r="J82" s="32" t="s">
+      <c r="J82" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
       <c r="N82" t="s">
         <v>56</v>
       </c>
       <c r="O82" t="s">
         <v>57</v>
       </c>
-      <c r="S82" s="32" t="s">
+      <c r="S82" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="T82" s="32"/>
-      <c r="U82" s="32"/>
-      <c r="V82" s="32"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="34"/>
+      <c r="V82" s="34"/>
       <c r="W82" t="s">
         <v>56</v>
       </c>
@@ -7709,12 +7760,12 @@
       <c r="W95" s="7"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="J96" s="32" t="s">
+      <c r="J96" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="K96" s="32"/>
-      <c r="L96" s="32"/>
-      <c r="M96" s="32"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="34"/>
       <c r="N96" t="s">
         <v>56</v>
       </c>
@@ -7841,12 +7892,12 @@
       <c r="J99" t="s">
         <v>61</v>
       </c>
-      <c r="AB99" s="32" t="s">
+      <c r="AB99" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="AC99" s="32"/>
-      <c r="AD99" s="32"/>
-      <c r="AE99" s="32"/>
+      <c r="AC99" s="34"/>
+      <c r="AD99" s="34"/>
+      <c r="AE99" s="34"/>
       <c r="AF99" t="s">
         <v>56</v>
       </c>
@@ -7907,12 +7958,12 @@
       <c r="Q101" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="S101" s="32" t="s">
+      <c r="S101" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="T101" s="32"/>
-      <c r="U101" s="32"/>
-      <c r="V101" s="32"/>
+      <c r="T101" s="34"/>
+      <c r="U101" s="34"/>
+      <c r="V101" s="34"/>
       <c r="W101" t="s">
         <v>56</v>
       </c>
@@ -8443,12 +8494,12 @@
       </c>
     </row>
     <row r="113" spans="19:35">
-      <c r="AB113" s="32" t="s">
+      <c r="AB113" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="AC113" s="32"/>
-      <c r="AD113" s="32"/>
-      <c r="AE113" s="32"/>
+      <c r="AC113" s="34"/>
+      <c r="AD113" s="34"/>
+      <c r="AE113" s="34"/>
       <c r="AF113" t="s">
         <v>56</v>
       </c>
@@ -8457,7 +8508,7 @@
       </c>
     </row>
     <row r="114" spans="19:35">
-      <c r="T114" s="33"/>
+      <c r="T114" s="31"/>
       <c r="AB114" t="s">
         <v>62</v>
       </c>
@@ -8472,17 +8523,17 @@
       <c r="AG114" s="14"/>
     </row>
     <row r="115" spans="19:35">
-      <c r="S115" s="33" t="s">
+      <c r="S115" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="U115" s="33"/>
+      <c r="U115" s="31"/>
       <c r="W115" t="s">
         <v>56</v>
       </c>
       <c r="X115" t="s">
         <v>57</v>
       </c>
-      <c r="Z115" s="33" t="s">
+      <c r="Z115" s="31" t="s">
         <v>205</v>
       </c>
       <c r="AB115" s="4" t="s">
@@ -8908,12 +8959,9 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AB113:AE113"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="AD73:AF73"/>
-    <mergeCell ref="AB99:AE99"/>
+    <mergeCell ref="A69:Q69"/>
+    <mergeCell ref="S82:V82"/>
+    <mergeCell ref="S101:V101"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="S62:V62"/>
     <mergeCell ref="A20:D20"/>
@@ -8925,9 +8973,12 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="AB34:AE34"/>
     <mergeCell ref="S34:V34"/>
-    <mergeCell ref="A69:Q69"/>
-    <mergeCell ref="S82:V82"/>
-    <mergeCell ref="S101:V101"/>
+    <mergeCell ref="AB113:AE113"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="AD73:AF73"/>
+    <mergeCell ref="AB99:AE99"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8946,48 +8997,48 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="6" spans="1:35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" t="s">
         <v>56</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
       <c r="N6" t="s">
         <v>56</v>
       </c>
       <c r="O6" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
       <c r="W6" t="s">
         <v>56</v>
       </c>
       <c r="X6" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="32" t="s">
+      <c r="AB6" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
       <c r="AF6" t="s">
         <v>56</v>
       </c>
@@ -9946,12 +9997,12 @@
       <c r="Z19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB19" s="32" t="s">
+      <c r="AB19" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
       <c r="AF19" t="s">
         <v>56</v>
       </c>
@@ -9960,12 +10011,12 @@
       </c>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>56</v>
       </c>
@@ -10477,12 +10528,12 @@
       <c r="H27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
       <c r="N27" t="s">
         <v>56</v>
       </c>
@@ -10525,12 +10576,12 @@
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="14"/>
-      <c r="S28" s="32" t="s">
+      <c r="S28" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
       <c r="W28" t="s">
         <v>56</v>
       </c>
@@ -10919,12 +10970,12 @@
       <c r="Z33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AB33" s="32" t="s">
+      <c r="AB33" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
       <c r="AF33" t="s">
         <v>56</v>
       </c>
@@ -10995,12 +11046,12 @@
       <c r="AG34" s="14"/>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
       <c r="E35" t="s">
         <v>56</v>
       </c>
@@ -11898,12 +11949,12 @@
       </c>
     </row>
     <row r="48" spans="1:35">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
       <c r="E48" t="s">
         <v>56</v>
       </c>
@@ -11948,12 +11999,12 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="14"/>
-      <c r="J49" s="32" t="s">
+      <c r="J49" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
       <c r="N49" t="s">
         <v>56</v>
       </c>
@@ -12035,12 +12086,12 @@
       <c r="Q51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="S51" s="32" t="s">
+      <c r="S51" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
       <c r="W51" t="s">
         <v>56</v>
       </c>
@@ -12612,6 +12663,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J27:M27"/>
     <mergeCell ref="J49:M49"/>
     <mergeCell ref="S51:V51"/>
     <mergeCell ref="S6:V6"/>
@@ -12619,12 +12676,6 @@
     <mergeCell ref="AB33:AE33"/>
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J27:M27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/protocol/ERP 시스템 표준 통신 프로토콜 정의_2021_10_28.xlsx
+++ b/protocol/ERP 시스템 표준 통신 프로토콜 정의_2021_10_28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoikazto/Desktop/git/Erp-Document/protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326569CD-BD15-CB4E-8E71-315249FC05DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB4A50B-D110-8842-9B92-E8608ACFCE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{48572F7A-0ACE-C246-B590-9F1E9A03BAAB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{48572F7A-0ACE-C246-B590-9F1E9A03BAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="223">
   <si>
     <t>Sender</t>
   </si>
@@ -913,7 +913,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>,.,.kl;oppl;.//;/;;/</t>
+    <t>라즈베리 &lt;-&gt; 아두이노간 통신 Nack 데이터에서 프로토콜 번호 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1915,14 +1915,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BFF69C-9C3A-B345-A9B8-38043CBDF4E2}">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="131" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A5" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -2026,10 +2026,18 @@
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="32">
+        <v>44511</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>163</v>
+      </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
     </row>
@@ -2168,7 +2176,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2400,7 +2408,9 @@
       <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="J8" s="7">
         <v>3</v>
       </c>
@@ -2890,7 +2900,7 @@
         <v>9</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>29</v>

--- a/protocol/ERP 시스템 표준 통신 프로토콜 정의_2021_10_28.xlsx
+++ b/protocol/ERP 시스템 표준 통신 프로토콜 정의_2021_10_28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoikazto/Desktop/git/Erp-Document/protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB4A50B-D110-8842-9B92-E8608ACFCE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDDF397-C725-1D4E-940C-CFDBB1D7E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{48572F7A-0ACE-C246-B590-9F1E9A03BAAB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{48572F7A-0ACE-C246-B590-9F1E9A03BAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="4" r:id="rId1"/>
@@ -2175,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3088A680-D3EE-E74F-A31D-C834569A6AFF}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3771,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8262301-E68F-1C43-B727-9D392BE05D7B}">
   <dimension ref="A1:AI126"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/protocol/ERP 시스템 표준 통신 프로토콜 정의_2021_10_28.xlsx
+++ b/protocol/ERP 시스템 표준 통신 프로토콜 정의_2021_10_28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aoikazto/Desktop/git/Erp-Document/protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDDF397-C725-1D4E-940C-CFDBB1D7E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18060029-920D-FA41-845D-BADEE4584319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{48572F7A-0ACE-C246-B590-9F1E9A03BAAB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{48572F7A-0ACE-C246-B590-9F1E9A03BAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="225">
   <si>
     <t>Sender</t>
   </si>
@@ -914,6 +914,14 @@
   </si>
   <si>
     <t>라즈베리 &lt;-&gt; 아두이노간 통신 Nack 데이터에서 프로토콜 번호 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devices/raspberry/{raspberry pi id}/arduino/status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리 &lt;-&gt; DoD 서버 통신에서 아두이노 상태 목록을 통신하는 내용 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1520,6 +1528,45 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4242965" cy="1005113"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03767C6-0379-0B4C-9DF5-9BF9652937FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18503654" y="7349129"/>
+          <a:ext cx="4242965" cy="1005113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1529,13 +1576,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>418991</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>48904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>906545</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>160649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1915,14 +1962,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BFF69C-9C3A-B345-A9B8-38043CBDF4E2}">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -2042,10 +2089,18 @@
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="32">
+        <v>44516</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>163</v>
+      </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
     </row>
@@ -2175,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3088A680-D3EE-E74F-A31D-C834569A6AFF}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23:AP69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3771,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8262301-E68F-1C43-B727-9D392BE05D7B}">
   <dimension ref="A1:AI126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="S31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB53" sqref="AB53:AI53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4174,29 +4229,8 @@
       <c r="Z23" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AB23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI23" s="10" t="s">
-        <v>52</v>
+      <c r="AB23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -4252,8 +4286,17 @@
         <v>61</v>
       </c>
       <c r="AB24" t="s">
-        <v>61</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="14"/>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="7">
@@ -4316,18 +4359,30 @@
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="14"/>
-      <c r="AB25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="14"/>
+      <c r="AB25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI25" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="7">
@@ -4402,29 +4457,29 @@
       <c r="Z26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE26" s="5" t="s">
-        <v>5</v>
+      <c r="AB26" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE26" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF26" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI26" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI26" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -4479,30 +4534,17 @@
       <c r="Z27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI27" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AB27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
@@ -4552,17 +4594,30 @@
         <v>1</v>
       </c>
       <c r="W28" s="7"/>
-      <c r="AB28" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="7"/>
+      <c r="AB28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI28" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="4" t="s">
@@ -4637,29 +4692,29 @@
       <c r="Z29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE29" s="5" t="s">
-        <v>5</v>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE29" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF29" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI29" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI29" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -4736,7 +4791,7 @@
         <v>70</v>
       </c>
       <c r="AB30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC30" s="9" t="s">
         <v>9</v>
@@ -4751,13 +4806,13 @@
         <v>40</v>
       </c>
       <c r="AG30" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AH30" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI30" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -4799,30 +4854,6 @@
       <c r="Z31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AB31" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI31" s="10" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="4" t="s">
@@ -4910,6 +4941,18 @@
       </c>
       <c r="Q33" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="AB33" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4973,18 +5016,18 @@
       <c r="X34" t="s">
         <v>58</v>
       </c>
-      <c r="AB34" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="14"/>
     </row>
     <row r="35" spans="1:35">
       <c r="J35" s="16" t="s">
@@ -5010,18 +5053,30 @@
       </c>
       <c r="W35" s="7"/>
       <c r="X35" s="14"/>
-      <c r="AB35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="14"/>
+      <c r="AB35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI35" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:35">
       <c r="J36" s="4" t="s">
@@ -5072,29 +5127,29 @@
       <c r="Z36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>5</v>
+      <c r="AB36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE36" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI36" s="7" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="AG36" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI36" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -5159,7 +5214,7 @@
         <v>112</v>
       </c>
       <c r="AB37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC37" s="9" t="s">
         <v>9</v>
@@ -5173,14 +5228,14 @@
       <c r="AF37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AG37" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH37" s="12" t="s">
-        <v>51</v>
+      <c r="AG37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH37" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="AI37" s="10" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -5224,7 +5279,7 @@
         <v>61</v>
       </c>
       <c r="AB38" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC38" s="9" t="s">
         <v>9</v>
@@ -5238,11 +5293,11 @@
       <c r="AF38" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AG38" s="7" t="s">
-        <v>115</v>
+      <c r="AG38" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="AH38" s="10" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="AI38" s="10" t="s">
         <v>70</v>
@@ -5286,7 +5341,7 @@
       <c r="W39" s="7"/>
       <c r="X39" s="14"/>
       <c r="AB39" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC39" s="9" t="s">
         <v>9</v>
@@ -5300,11 +5355,11 @@
       <c r="AF39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AG39" s="15" t="s">
-        <v>120</v>
+      <c r="AG39" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="AH39" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AI39" s="10" t="s">
         <v>70</v>
@@ -5339,7 +5394,7 @@
         <v>7</v>
       </c>
       <c r="AB40" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC40" s="9" t="s">
         <v>9</v>
@@ -5354,10 +5409,10 @@
         <v>40</v>
       </c>
       <c r="AG40" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AH40" s="10" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="AI40" s="10" t="s">
         <v>70</v>
@@ -5412,29 +5467,8 @@
       <c r="Z41" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB41" s="7">
-        <v>5</v>
-      </c>
-      <c r="AC41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG41" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH41" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI41" s="10" t="s">
-        <v>70</v>
+      <c r="AB41" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -5486,8 +5520,17 @@
       </c>
       <c r="W42" s="7"/>
       <c r="AB42" t="s">
-        <v>61</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="14"/>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="7">
@@ -5562,18 +5605,30 @@
       <c r="Z43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB43" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="14"/>
+      <c r="AB43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI43" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="7">
@@ -5627,29 +5682,29 @@
       <c r="Z44" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE44" s="5" t="s">
-        <v>5</v>
+      <c r="AB44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE44" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF44" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI44" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI44" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -5712,30 +5767,17 @@
       <c r="Z45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AB45" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH45" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI45" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AB45" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="7"/>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="7">
@@ -5786,17 +5828,30 @@
       <c r="Q46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB46" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="7"/>
+      <c r="AB46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI46" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="7">
@@ -5847,29 +5902,29 @@
       <c r="Q47" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC47" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE47" s="5" t="s">
-        <v>5</v>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE47" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF47" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI47" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH47" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI47" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5921,7 +5976,7 @@
         <v>57</v>
       </c>
       <c r="AB48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC48" s="9" t="s">
         <v>9</v>
@@ -5936,13 +5991,13 @@
         <v>40</v>
       </c>
       <c r="AG48" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AH48" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI48" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -6006,30 +6061,6 @@
       </c>
       <c r="W49" s="7"/>
       <c r="X49" s="14"/>
-      <c r="AB49" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG49" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH49" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI49" s="10" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="7">
@@ -6156,6 +6187,18 @@
       </c>
       <c r="S51" t="s">
         <v>61</v>
+      </c>
+      <c r="AB51" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -6194,18 +6237,18 @@
         <v>1</v>
       </c>
       <c r="W52" s="7"/>
-      <c r="AB52" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="34"/>
-      <c r="AF52" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>57</v>
-      </c>
+      <c r="AB52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="14"/>
     </row>
     <row r="53" spans="1:35">
       <c r="J53" s="7">
@@ -6256,18 +6299,30 @@
       <c r="Z53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB53" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="14"/>
+      <c r="AB53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI53" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:35">
       <c r="J54" s="7">
@@ -6318,29 +6373,8 @@
       <c r="Z54" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH54" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI54" s="7" t="s">
-        <v>7</v>
+      <c r="AB54" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -6392,9 +6426,17 @@
       <c r="Z55" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AB55" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB55" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="7"/>
     </row>
     <row r="56" spans="1:35">
       <c r="J56" s="16" t="s">
@@ -6419,17 +6461,30 @@
         <v>1</v>
       </c>
       <c r="W56" s="7"/>
-      <c r="AB56" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC56" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF56" s="7"/>
+      <c r="AB56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG56" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI56" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:35">
       <c r="J57" s="4" t="s">
@@ -6480,29 +6535,29 @@
       <c r="Z57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE57" s="5" t="s">
-        <v>5</v>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE57" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF57" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG57" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH57" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI57" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH57" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI57" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -6555,7 +6610,7 @@
         <v>70</v>
       </c>
       <c r="AB58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC58" s="9" t="s">
         <v>9</v>
@@ -6570,13 +6625,13 @@
         <v>40</v>
       </c>
       <c r="AG58" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AH58" s="10" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="AI58" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -6628,68 +6683,68 @@
       <c r="Z59" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AB59" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC59" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD59" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF59" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG59" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH59" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI59" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="AB59" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="7"/>
     </row>
     <row r="60" spans="1:35">
-      <c r="AB60" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF60" s="7"/>
+      <c r="AB60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI60" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" spans="1:35">
-      <c r="AB61" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE61" s="5" t="s">
-        <v>5</v>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE61" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF61" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG61" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH61" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI61" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI61" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -6706,7 +6761,7 @@
         <v>59</v>
       </c>
       <c r="AB62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC62" s="9" t="s">
         <v>9</v>
@@ -6721,13 +6776,13 @@
         <v>40</v>
       </c>
       <c r="AG62" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AH62" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI62" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -6743,30 +6798,6 @@
       </c>
       <c r="W63" s="7"/>
       <c r="X63" s="14"/>
-      <c r="AB63" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC63" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD63" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE63" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF63" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG63" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH63" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI63" s="10" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="64" spans="1:35">
       <c r="S64" s="4" t="s">
@@ -6986,6 +7017,11 @@
       <c r="Z72" s="10" t="s">
         <v>70</v>
       </c>
+      <c r="AD72" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE72" s="33"/>
+      <c r="AF72" s="33"/>
     </row>
     <row r="73" spans="1:34">
       <c r="A73" t="s">
@@ -7015,24 +7051,19 @@
       <c r="Z73" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AD73" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE73" s="33"/>
-      <c r="AF73" s="33"/>
     </row>
     <row r="74" spans="1:34">
       <c r="A74" t="s">
         <v>207</v>
       </c>
     </row>
+    <row r="77" spans="1:34">
+      <c r="AH77" t="s">
+        <v>215</v>
+      </c>
+    </row>
     <row r="78" spans="1:34">
       <c r="AH78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34">
-      <c r="AH79" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7844,6 +7875,9 @@
       <c r="Z97" s="10" t="s">
         <v>70</v>
       </c>
+      <c r="AB97" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="98" spans="10:35">
       <c r="J98" s="4" t="s">
@@ -7894,26 +7928,35 @@
       <c r="Z98" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AB98" t="s">
-        <v>196</v>
+      <c r="AB98" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC98" s="34"/>
+      <c r="AD98" s="34"/>
+      <c r="AE98" s="34"/>
+      <c r="AF98" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="10:35">
       <c r="J99" t="s">
         <v>61</v>
       </c>
-      <c r="AB99" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC99" s="34"/>
-      <c r="AD99" s="34"/>
-      <c r="AE99" s="34"/>
-      <c r="AF99" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG99" t="s">
-        <v>58</v>
-      </c>
+      <c r="AB99" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC99" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="7"/>
+      <c r="AG99" s="14"/>
     </row>
     <row r="100" spans="10:35">
       <c r="J100" s="16" t="s">
@@ -7930,18 +7973,30 @@
       <c r="S100" t="s">
         <v>196</v>
       </c>
-      <c r="AB100" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC100" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="2"/>
-      <c r="AE100" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF100" s="7"/>
-      <c r="AG100" s="14"/>
+      <c r="AB100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF100" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG100" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH100" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI100" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="101" spans="10:35">
       <c r="J101" s="4" t="s">
@@ -7983,29 +8038,29 @@
       <c r="Z101" t="s">
         <v>204</v>
       </c>
-      <c r="AB101" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC101" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD101" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE101" s="5" t="s">
-        <v>5</v>
+      <c r="AB101" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC101" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD101" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE101" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF101" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG101" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH101" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI101" s="7" t="s">
-        <v>7</v>
+        <v>151</v>
+      </c>
+      <c r="AH101" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI101" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="10:35">
@@ -8045,29 +8100,8 @@
       </c>
       <c r="W102" s="7"/>
       <c r="X102" s="14"/>
-      <c r="AB102" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC102" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD102" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE102" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF102" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG102" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH102" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI102" s="10" t="s">
-        <v>200</v>
+      <c r="AB102" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="10:35">
@@ -8106,9 +8140,17 @@
       <c r="Z103" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB103" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB103" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF103" s="7"/>
     </row>
     <row r="104" spans="10:35">
       <c r="J104" s="4" t="s">
@@ -8138,17 +8180,30 @@
       <c r="S104" t="s">
         <v>61</v>
       </c>
-      <c r="AB104" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC104" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD104" s="2"/>
-      <c r="AE104" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF104" s="7"/>
+      <c r="AB104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC104" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF104" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG104" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH104" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI104" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="105" spans="10:35">
       <c r="J105" s="7">
@@ -8186,29 +8241,29 @@
         <v>1</v>
       </c>
       <c r="W105" s="7"/>
-      <c r="AB105" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC105" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD105" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE105" s="5" t="s">
-        <v>5</v>
+      <c r="AB105" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD105" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE105" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF105" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG105" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH105" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI105" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH105" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI105" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="10:35">
@@ -8244,30 +8299,17 @@
       <c r="Z106" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB106" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC106" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD106" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE106" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF106" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG106" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH106" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI106" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AB106" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF106" s="7"/>
     </row>
     <row r="107" spans="10:35">
       <c r="S107" s="7">
@@ -8294,17 +8336,30 @@
       <c r="Z107" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB107" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC107" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF107" s="7"/>
+      <c r="AB107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF107" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG107" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH107" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI107" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="108" spans="10:35">
       <c r="S108" s="7">
@@ -8331,29 +8386,29 @@
       <c r="Z108" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="AB108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC108" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD108" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE108" s="5" t="s">
-        <v>5</v>
+      <c r="AB108" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC108" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD108" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE108" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF108" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG108" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH108" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI108" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH108" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI108" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="10:35">
@@ -8369,7 +8424,7 @@
       </c>
       <c r="W109" s="7"/>
       <c r="AB109" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC109" s="9" t="s">
         <v>9</v>
@@ -8384,13 +8439,13 @@
         <v>40</v>
       </c>
       <c r="AG109" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AH109" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI109" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="10:35">
@@ -8418,30 +8473,14 @@
       <c r="Z110" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB110" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC110" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD110" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE110" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF110" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG110" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH110" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI110" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="AB110" s="14"/>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="14"/>
+      <c r="AE110" s="19"/>
+      <c r="AF110" s="14"/>
+      <c r="AG110" s="14"/>
+      <c r="AH110" s="20"/>
+      <c r="AI110" s="20"/>
     </row>
     <row r="111" spans="10:35">
       <c r="S111" s="7">
@@ -8468,14 +8507,6 @@
       <c r="Z111" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB111" s="14"/>
-      <c r="AC111" s="19"/>
-      <c r="AD111" s="14"/>
-      <c r="AE111" s="19"/>
-      <c r="AF111" s="14"/>
-      <c r="AG111" s="14"/>
-      <c r="AH111" s="20"/>
-      <c r="AI111" s="20"/>
     </row>
     <row r="112" spans="10:35">
       <c r="S112" s="7">
@@ -8502,35 +8533,59 @@
       <c r="Z112" s="10" t="s">
         <v>52</v>
       </c>
+      <c r="AB112" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC112" s="34"/>
+      <c r="AD112" s="34"/>
+      <c r="AE112" s="34"/>
+      <c r="AF112" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="113" spans="19:35">
-      <c r="AB113" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC113" s="34"/>
-      <c r="AD113" s="34"/>
-      <c r="AE113" s="34"/>
-      <c r="AF113" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG113" t="s">
-        <v>58</v>
-      </c>
+      <c r="AB113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC113" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF113" s="7"/>
+      <c r="AG113" s="14"/>
     </row>
     <row r="114" spans="19:35">
       <c r="T114" s="31"/>
-      <c r="AB114" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC114" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF114" s="7"/>
-      <c r="AG114" s="14"/>
+      <c r="AB114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF114" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG114" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH114" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI114" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="115" spans="19:35">
       <c r="S115" s="31" t="s">
@@ -8546,29 +8601,29 @@
       <c r="Z115" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="AB115" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC115" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD115" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE115" s="5" t="s">
-        <v>5</v>
+      <c r="AB115" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD115" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE115" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF115" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG115" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH115" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI115" s="7" t="s">
-        <v>7</v>
+        <v>151</v>
+      </c>
+      <c r="AH115" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI115" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="19:35">
@@ -8584,29 +8639,8 @@
       </c>
       <c r="W116" s="7"/>
       <c r="X116" s="14"/>
-      <c r="AB116" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC116" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD116" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE116" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF116" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG116" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH116" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI116" s="10" t="s">
-        <v>206</v>
+      <c r="AB116" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="19:35">
@@ -8634,25 +8668,46 @@
       <c r="Z117" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB117" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB117" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF117" s="7"/>
     </row>
     <row r="118" spans="19:35">
       <c r="S118" t="s">
         <v>61</v>
       </c>
-      <c r="AB118" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC118" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD118" s="2"/>
-      <c r="AE118" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF118" s="7"/>
+      <c r="AB118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC118" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF118" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG118" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH118" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI118" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="119" spans="19:35">
       <c r="S119" s="16" t="s">
@@ -8666,29 +8721,29 @@
         <v>1</v>
       </c>
       <c r="W119" s="7"/>
-      <c r="AB119" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC119" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD119" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE119" s="5" t="s">
-        <v>5</v>
+      <c r="AB119" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD119" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE119" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF119" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG119" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH119" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI119" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH119" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI119" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="19:35">
@@ -8716,30 +8771,17 @@
       <c r="Z120" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB120" s="7">
-        <v>1</v>
-      </c>
-      <c r="AC120" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD120" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE120" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF120" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG120" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH120" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI120" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="AB120" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF120" s="7"/>
     </row>
     <row r="121" spans="19:35">
       <c r="S121" s="7">
@@ -8766,17 +8808,30 @@
       <c r="Z121" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AB121" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC121" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD121" s="2"/>
-      <c r="AE121" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF121" s="7"/>
+      <c r="AB121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC121" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF121" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG121" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH121" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI121" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="122" spans="19:35">
       <c r="S122" s="7">
@@ -8803,29 +8858,29 @@
       <c r="Z122" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AB122" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC122" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD122" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE122" s="5" t="s">
-        <v>5</v>
+      <c r="AB122" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC122" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD122" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE122" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="AF122" s="7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AG122" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH122" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI122" s="7" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="AH122" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI122" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="19:35">
@@ -8841,7 +8896,7 @@
       </c>
       <c r="W123" s="7"/>
       <c r="AB123" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC123" s="9" t="s">
         <v>9</v>
@@ -8856,13 +8911,13 @@
         <v>40</v>
       </c>
       <c r="AG123" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AH123" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI123" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="19:35">
@@ -8889,30 +8944,6 @@
       </c>
       <c r="Z124" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="AB124" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC124" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD124" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE124" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF124" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG124" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH124" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI124" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="125" spans="19:35">
@@ -8976,19 +9007,19 @@
     <mergeCell ref="S62:V62"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="AB51:AE51"/>
     <mergeCell ref="J41:M41"/>
     <mergeCell ref="S48:V48"/>
     <mergeCell ref="S20:V20"/>
     <mergeCell ref="J20:M20"/>
-    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="AB33:AE33"/>
     <mergeCell ref="S34:V34"/>
-    <mergeCell ref="AB113:AE113"/>
+    <mergeCell ref="AB112:AE112"/>
     <mergeCell ref="J82:M82"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="J96:M96"/>
-    <mergeCell ref="AD73:AF73"/>
-    <mergeCell ref="AB99:AE99"/>
+    <mergeCell ref="AD72:AF72"/>
+    <mergeCell ref="AB98:AE98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
